--- a/Java/Test OptRecursive/OptRecursive_Testbench/Excel_Files/outputOpt/Q_res.xlsx
+++ b/Java/Test OptRecursive/OptRecursive_Testbench/Excel_Files/outputOpt/Q_res.xlsx
@@ -63,122 +63,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.39184099069353034</v>
+        <v>-0.41499390233946015</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.21634032367720082</v>
+        <v>-0.2296611148752524</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.21100231875793934</v>
+        <v>-0.2245446066902856</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.551610960914076E-4</v>
+        <v>1.61540756967336E-4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-9.131762533181929E-5</v>
+        <v>2.498426788862258E-4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.6723743361936295E-4</v>
+        <v>-3.9288925875659964E-4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.6324181910271874E-4</v>
+        <v>-2.374022479466587E-4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.3179388486681836E-5</v>
+        <v>-1.1731229479506278E-4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.168611869207844E-5</v>
+        <v>2.1656415369121303E-4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.727402605549619E-4</v>
+        <v>-1.1074137397429396E-4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.2638193918631654E-4</v>
+        <v>-4.055469707564757E-4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.5106789495668107E-4</v>
+        <v>-2.2532072707057924E-4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-8.394152018047976E-4</v>
+        <v>-9.11761144039945E-6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-8.87586017169431E-4</v>
+        <v>-2.9767619429069413E-4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.001940834725503896</v>
+        <v>-8.093427160235009E-4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0023658288843238203</v>
+        <v>7.919993604956497E-4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.002255272434196612</v>
+        <v>8.853346695308569E-4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.001885898984859728</v>
+        <v>6.876107434895042E-4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0023742074467492367</v>
+        <v>8.094094498329438E-4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0020958252002752434</v>
+        <v>5.047002367474013E-4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0014828786526916177</v>
+        <v>7.183896753361446E-4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0022229589671129454</v>
+        <v>3.20590398494974E-4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.002141081423775359</v>
+        <v>0.00123990437220014</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.001135146355199728</v>
+        <v>-2.800309035589259E-4</v>
       </c>
     </row>
   </sheetData>
